--- a/StructureDefinition-Diagnose.xlsx
+++ b/StructureDefinition-Diagnose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T14:26:09+00:00</t>
+    <t>2024-04-07T14:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Diagnose.xlsx
+++ b/StructureDefinition-Diagnose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T14:51:37+00:00</t>
+    <t>2024-04-07T14:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Diagnose.xlsx
+++ b/StructureDefinition-Diagnose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T14:56:06+00:00</t>
+    <t>2024-04-08T13:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Diagnose.xlsx
+++ b/StructureDefinition-Diagnose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T13:30:59+00:00</t>
+    <t>2024-04-08T16:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Diagnose.xlsx
+++ b/StructureDefinition-Diagnose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-08T16:49:27+00:00</t>
+    <t>2024-04-08T16:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
